--- a/PO/data/11.xlsx
+++ b/PO/data/11.xlsx
@@ -1,39 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linghuchong/Downloads/51/Python/project/PO/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\PO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40441785-7C28-2448-98D3-2414339B647A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="17496"/>
   </bookViews>
   <sheets>
-    <sheet name="mysheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="444" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>wqwqw</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,21 +400,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="3:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
       <c r="D5">
         <v>1212</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1212</v>
       </c>
@@ -394,56 +475,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="G22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <sheetData>
-    <row r="22" spans="7:7">
-      <c r="G22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PO/data/11.xlsx
+++ b/PO/data/11.xlsx
@@ -1,91 +1,370 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\PO\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="17496"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="16300" windowHeight="13160" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hello" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="20">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
+  <fills count="33">
+    <fill>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -93,26 +372,375 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -395,86 +1023,173 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16346153846154" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>成绩</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>100</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>55</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16346153846154" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>年龄</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>成绩</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>王武</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>李莫愁</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>55</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>张桂芳</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>66</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>董瑞</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89</v>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>1212</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PO/data/11.xlsx
+++ b/PO/data/11.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="16300" windowHeight="13160" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hello" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1032,56 +1032,293 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16346153846154" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16346153846154" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>年龄2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>成绩</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>内容</t>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>年龄</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>john</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>名字</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>课程</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>dev</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>k1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
+        <v>1212</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>yoyo</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>语文</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>66</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>56789</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>jinhao</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>数学</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>yoyo</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>titi</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>物理</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="n">
         <v>55</v>
       </c>
-      <c r="B5" t="n">
+      <c r="F6" t="n">
         <v>7</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>gugu</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>化学</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>电话</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>成绩</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>学科</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>毛泽东</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>15266606298</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>化学</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>周恩来</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>15201077791</v>
+      </c>
+      <c r="G9" t="n">
+        <v>78</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>美术</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1095,101 +1332,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16346153846154" defaultRowHeight="16.8" outlineLevelRow="4"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>姓名</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>年龄</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>成绩</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>王武</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>24</v>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>李莫愁</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>55</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>张桂芳</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C4" t="n">
-        <v>66</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>董瑞</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>89</v>
-      </c>
-      <c r="C5" t="n">
-        <v>55</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/PO/data/11.xlsx
+++ b/PO/data/11.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="16300" windowHeight="13160" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="13260" windowHeight="13160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hello_标题升序" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hello" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hello_标题升序'!$B$1:$B$10</definedName>
+  </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -17,13 +20,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="16"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -364,12 +381,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -488,138 +520,146 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1032,296 +1072,213 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16346153846154" defaultRowHeight="16.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <cols>
+    <col width="46.7980769230769" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>姓名</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>姓名</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>年龄2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>成绩</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>年龄</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>john</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>名字</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>课程</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>dev</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>k1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>张三</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>552</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>金浩</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>888</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>张三</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1212</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="1" ht="23.2" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>goal</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="n"/>
+      <c r="F1" s="4" t="n"/>
+      <c r="G1" s="4" t="n"/>
+      <c r="H1" s="4" t="n"/>
+    </row>
+    <row r="2" ht="23.2" customFormat="1" customHeight="1" s="1">
+      <c r="A2" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>李四</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>40</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>yoyo</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>语文</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="C2" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>萨迪哦房间送到房间哦圣诞节佛</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="23.2" customHeight="1">
+      <c r="A3" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>李四</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>777</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="C3" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>萨迪哦房间送到房间哦圣诞节佛</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+    </row>
+    <row r="4" ht="23.2" customHeight="1">
+      <c r="A4" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>王武</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>56789</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>jinhao</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>数学</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>yoyo</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>666</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>titi</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>物理</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" t="n">
-        <v>55</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>gugu</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>化学</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>姓名</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>电话</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>成绩</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>学科</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>毛泽东</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>15266606298</v>
-      </c>
-      <c r="G8" t="n">
-        <v>14</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>化学</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>周恩来</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>15201077791</v>
-      </c>
-      <c r="G9" t="n">
-        <v>78</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>美术</t>
-        </is>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="4" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="4" t="n"/>
+    </row>
+    <row r="5" ht="23.2" customHeight="1">
+      <c r="A5" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>萨迪哦房间送到房间哦圣诞节佛</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="23.2" customHeight="1">
+      <c r="A6" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>萨迪哦房间送到房间哦圣诞节佛</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="23.2" customHeight="1">
+      <c r="A7" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>王武</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" ht="23.2" customHeight="1">
+      <c r="A8" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>萨迪哦房间送到房间哦圣诞节佛</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="23.2" customHeight="1">
+      <c r="A9" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>萨迪哦房间送到房间哦圣诞节佛</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="23.2" customHeight="1">
+      <c r="A10" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>王武</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B10"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1332,14 +1289,385 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16346153846154" defaultRowHeight="16.8"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>年龄2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>成绩</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>年龄</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>john</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>名字</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>课程</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>k1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>yoyo</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>语文</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>56789</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>jinhao</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>数学</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>yoyo</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>titi</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>物理</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="n">
+        <v>55</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>gugu</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>化学</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>电话</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>成绩</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>学科</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>毛泽东</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>15266606298</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>化学</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>周恩来</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>15201077791</v>
+      </c>
+      <c r="G9" t="n">
+        <v>78</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>美术</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>goal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>345</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>王武</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/PO/data/11.xlsx
+++ b/PO/data/11.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="13260" windowHeight="13160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="13260" windowHeight="13160" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hello_标题升序" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hello1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hello" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hello2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hello_标题升序'!$B$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'hello1'!$B$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -187,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill/>
     </fill>
@@ -196,6 +196,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -232,12 +238,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -378,6 +378,26 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffeb9c"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000000FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -526,7 +546,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
@@ -550,16 +570,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
@@ -568,13 +588,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="1">
@@ -650,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -660,6 +680,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1074,11 +1139,11 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="0"/>
   <cols>
     <col width="46.7980769230769" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1110,7 +1175,7 @@
       <c r="H1" s="4" t="n"/>
     </row>
     <row r="2" ht="23.2" customFormat="1" customHeight="1" s="1">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="15" t="n">
         <v>23</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -1135,7 +1200,7 @@
       <c r="A3" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>李四</t>
         </is>
@@ -1143,7 +1208,7 @@
       <c r="C3" s="2" t="n">
         <v>345</v>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="15" t="inlineStr">
         <is>
           <t>萨迪哦房间送到房间哦圣诞节佛</t>
         </is>
@@ -1155,7 +1220,7 @@
     </row>
     <row r="4" ht="23.2" customHeight="1">
       <c r="A4" s="2" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -1179,10 +1244,10 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>李四</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="C5" s="15" t="n">
         <v>345</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1201,7 +1266,7 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>345</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
@@ -1221,8 +1286,10 @@
       <c r="C7" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>100</v>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>你好</t>
+        </is>
       </c>
     </row>
     <row r="8" ht="23.2" customHeight="1">
@@ -1291,7 +1358,7 @@
   </sheetPr>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1589,81 +1656,210 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="0"/>
+  <cols>
+    <col width="46.7980769230769" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="23.2" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>goal</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="E1" s="4" t="n"/>
+      <c r="F1" s="4" t="n"/>
+      <c r="G1" s="4" t="n"/>
+      <c r="H1" s="4" t="n"/>
+    </row>
+    <row r="2" ht="23.2" customFormat="1" customHeight="1" s="1">
+      <c r="A2" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>萨迪哦房间送到房间哦圣诞节佛</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="23.2" customHeight="1">
+      <c r="A3" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+    </row>
+    <row r="4" ht="23.2" customHeight="1">
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>王武</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="4" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="4" t="n"/>
+    </row>
+    <row r="5" ht="23.2" customHeight="1">
+      <c r="A5" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>张三</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C5" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>萨迪哦房间送到房间哦圣诞节佛</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="23.2" customHeight="1">
+      <c r="A6" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>李四</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C6" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>萨迪哦房间送到房间哦圣诞节佛</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="23.2" customHeight="1">
+      <c r="A7" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>王武</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>你好</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="23.2" customHeight="1">
+      <c r="A8" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>345</v>
       </c>
-      <c r="D3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>萨迪哦房间送到房间哦圣诞节佛</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="23.2" customHeight="1">
+      <c r="A9" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>萨迪哦房间送到房间哦圣诞节佛</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="23.2" customHeight="1">
+      <c r="A10" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>王武</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C10" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D10" s="2" t="n">
         <v>100</v>
       </c>
     </row>
